--- a/LabFizyka/cw3 cw0 cw 4, cw 5fizyka.xlsx
+++ b/LabFizyka/cw3 cw0 cw 4, cw 5fizyka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SzaVii\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w71377\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DA7F2E-A9B1-4165-ACEB-B844EE3A2066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E6D259-F4BD-4E7C-8A1F-D02D607FF159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="3" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Cw0" sheetId="2" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>ck</t>
   </si>
@@ -270,13 +259,22 @@
   </si>
   <si>
     <t>Niepewnośc gęstości Nieregularny</t>
+  </si>
+  <si>
+    <t>kute alu</t>
+  </si>
+  <si>
+    <t>miedx</t>
+  </si>
+  <si>
+    <t>ołów</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +306,15 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -420,10 +427,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -431,6 +439,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,15 +464,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1461,9 +1471,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1506,7 +1516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1530,7 +1540,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1550,7 +1560,7 @@
         <v>2.5600000000000005</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1570,7 +1580,7 @@
         <v>0.3600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1590,7 +1600,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1610,7 +1620,7 @@
         <v>6.7600000000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1630,7 +1640,7 @@
         <v>1.9599999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1653,7 +1663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1673,7 +1683,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1693,7 +1703,7 @@
         <v>1.9599999999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19">
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -1702,7 +1712,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19">
       <c r="E14" t="s">
         <v>28</v>
       </c>
@@ -1715,17 +1725,17 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="C17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -1733,7 +1743,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="D21" t="s">
         <v>36</v>
       </c>
@@ -1745,7 +1755,7 @@
         <v>2.3904999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -1753,7 +1763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -1762,12 +1772,12 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -1780,7 +1790,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="C29">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -1789,7 +1799,7 @@
         <v>3.4641016151377544</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="E30">
         <f>0.1/E29</f>
         <v>2.8867513459481291E-2</v>
@@ -1812,12 +1822,12 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:25">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:25">
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:25">
       <c r="E7">
         <v>900</v>
       </c>
@@ -1941,7 +1951,7 @@
         <v>30555608.581911124</v>
       </c>
     </row>
-    <row r="8" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:25">
       <c r="E8">
         <v>900</v>
       </c>
@@ -1998,7 +2008,7 @@
         <v>4825320.2845155653</v>
       </c>
     </row>
-    <row r="9" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:25">
       <c r="E9">
         <v>900</v>
       </c>
@@ -2055,7 +2065,7 @@
         <v>21213.041002265622</v>
       </c>
     </row>
-    <row r="10" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:25">
       <c r="E10">
         <v>900</v>
       </c>
@@ -2112,7 +2122,7 @@
         <v>758298.47209725645</v>
       </c>
     </row>
-    <row r="11" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:25">
       <c r="E11">
         <v>900</v>
       </c>
@@ -2169,7 +2179,7 @@
         <v>9513815.9775250498</v>
       </c>
     </row>
-    <row r="12" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:25">
       <c r="E12">
         <v>900</v>
       </c>
@@ -2226,7 +2236,7 @@
         <v>1569936.5539540569</v>
       </c>
     </row>
-    <row r="13" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:25">
       <c r="E13">
         <v>900</v>
       </c>
@@ -2283,18 +2293,18 @@
         <v>7085174.1699057044</v>
       </c>
     </row>
-    <row r="28" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:25">
       <c r="Y28">
         <f>(N28-$E$33)^2</f>
         <v>30098144.025008153</v>
       </c>
     </row>
-    <row r="29" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:25">
       <c r="L29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:25">
       <c r="L30">
         <v>7</v>
       </c>
@@ -2306,13 +2316,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:25">
       <c r="Y31">
         <f>SUM(Y7:Y28)</f>
         <v>84427511.105919182</v>
       </c>
     </row>
-    <row r="32" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:25">
       <c r="E32" t="s">
         <v>16</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>2010178.8358552186</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6">
       <c r="E33">
         <f>AVERAGE(N7:N28)</f>
         <v>5486.1775422426999</v>
@@ -2347,17 +2357,17 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:22">
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2386,11 +2396,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:22">
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>0.4</v>
       </c>
       <c r="E5" s="1">
@@ -2420,11 +2430,11 @@
         <v>100.0000000009436</v>
       </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:22">
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1">
         <v>1.4850000000000001</v>
       </c>
@@ -2448,11 +2458,11 @@
         <v>99.999999999167812</v>
       </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:22">
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1">
         <v>1.49</v>
       </c>
@@ -2476,11 +2486,11 @@
         <v>100.0000000009436</v>
       </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:22">
       <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1">
         <v>1.4950000000000001</v>
       </c>
@@ -2504,21 +2514,21 @@
         <v>99.999999999167812</v>
       </c>
     </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="3:22">
+      <c r="C9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="3:22">
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>0.42</v>
       </c>
       <c r="E10" s="1">
@@ -2544,11 +2554,11 @@
         <v>100.00000000087539</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:22">
       <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1">
         <v>1.4279999999999999</v>
       </c>
@@ -2572,11 +2582,11 @@
         <v>99.999999999010925</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:22">
       <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1">
         <v>1.4330000000000001</v>
       </c>
@@ -2600,11 +2610,11 @@
         <v>100.00000000087539</v>
       </c>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:22">
       <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1">
         <v>1.4379999999999999</v>
       </c>
@@ -2628,11 +2638,11 @@
         <v>99.999999999010925</v>
       </c>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:22">
       <c r="C14" s="2">
         <v>9</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>0.44</v>
       </c>
       <c r="E14" s="1">
@@ -2658,11 +2668,11 @@
         <v>1877.7777777803674</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:22">
       <c r="C15" s="2">
         <v>10</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1">
         <v>1.2734000000000001</v>
       </c>
@@ -2686,11 +2696,11 @@
         <v>1877.7777777744902</v>
       </c>
     </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:22">
       <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1">
         <v>1.2784</v>
       </c>
@@ -2714,11 +2724,11 @@
         <v>1877.7777777803674</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22">
       <c r="C17" s="2">
         <v>12</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1">
         <v>1.2834000000000001</v>
       </c>
@@ -2742,11 +2752,11 @@
         <v>1877.7777777744902</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22">
       <c r="C18" s="2">
         <v>13</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>0.46</v>
       </c>
       <c r="E18" s="1">
@@ -2772,11 +2782,11 @@
         <v>711.11111111277046</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22">
       <c r="C19" s="2">
         <v>14</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1">
         <v>1.4734</v>
       </c>
@@ -2800,11 +2810,11 @@
         <v>711.11111110898992</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22">
       <c r="C20" s="2">
         <v>15</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1">
         <v>1.4783999999999999</v>
       </c>
@@ -2828,11 +2838,11 @@
         <v>711.11111111277046</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22">
       <c r="C21" s="2">
         <v>16</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1">
         <v>1.4834000000000001</v>
       </c>
@@ -2856,11 +2866,11 @@
         <v>711.11111110898992</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22">
       <c r="C22" s="2">
         <v>17</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="8">
         <v>0.48</v>
       </c>
       <c r="E22" s="1">
@@ -2886,11 +2896,11 @@
         <v>4899.9999999921374</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22">
       <c r="C23" s="2">
         <v>18</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1">
         <v>1.4530000000000001</v>
       </c>
@@ -2914,11 +2924,11 @@
         <v>4900.0000000070586</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22">
       <c r="C24" s="2">
         <v>19</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1">
         <v>1.458</v>
       </c>
@@ -2942,11 +2952,11 @@
         <v>4899.9999999921374</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22">
       <c r="C25" s="2">
         <v>20</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="1">
         <v>1.4630000000000001</v>
       </c>
@@ -2970,7 +2980,7 @@
         <v>4900.0000000070586</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22">
       <c r="U27" t="s">
         <v>52</v>
       </c>
@@ -2978,7 +2988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22">
       <c r="U28" t="s">
         <v>53</v>
       </c>
@@ -2987,7 +2997,7 @@
         <v>30755.555555551622</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" ht="18">
       <c r="E29" s="3" t="s">
         <v>48</v>
       </c>
@@ -2996,18 +3006,18 @@
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22">
       <c r="E30">
         <f>SQRT((V28/U29))</f>
         <v>8.9964255409917957</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22">
       <c r="B32">
         <v>0.95</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -3026,13 +3036,13 @@
         <v>18.829518657295829</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="C37">
         <f>B33*E30</f>
         <v>18.829518657295829</v>
       </c>
     </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:9">
       <c r="F86" s="1">
         <v>1.472</v>
       </c>
@@ -3065,214 +3075,270 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9358F7-C4ED-4B6D-8B2F-DE67E7CDFF21}">
   <dimension ref="C2:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V2" t="s">
+    <row r="2" spans="3:22">
+      <c r="V2" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="3:22" ht="15">
+      <c r="C5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="6" t="s">
         <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="3:22" ht="18">
+      <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6">
+        <v>5.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.01</v>
+      </c>
       <c r="H6" s="1">
         <f>E6*F6*G6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="e">
+        <v>2.0606019999999998</v>
+      </c>
+      <c r="J6" s="1">
         <f>D6 / H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>2.5720638920082579</v>
+      </c>
+      <c r="N6">
         <f>J6</f>
-        <v>#DIV/0!</v>
+        <v>2.5720638920082579</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P6" t="e">
+      <c r="P6">
         <f>C28</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
+        <v>0.53522347143229521</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" ht="15">
+      <c r="C7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="3:22" ht="15">
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="3:22" ht="15">
+      <c r="C9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="6" t="s">
         <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="13"/>
-    </row>
-    <row r="10" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="3:22" ht="18">
+      <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.5950000000000002</v>
+      </c>
       <c r="G10" s="1">
         <f>3.14 * ((E10*E10)/4) * F10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="e">
+        <v>11.142029030675003</v>
+      </c>
+      <c r="J10" s="1">
         <f>D10 / G10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" t="e">
+        <v>8.9750259781850374</v>
+      </c>
+      <c r="N10">
         <f>J10</f>
-        <v>#DIV/0!</v>
+        <v>8.9750259781850374</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P10" t="e">
+      <c r="P10">
         <f>D28</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
+        <v>0.12197069630548889</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" ht="15">
+      <c r="C11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="3:22" ht="15">
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="3:22" ht="15">
+      <c r="C13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="6" t="s">
         <v>63</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="3:22" ht="18">
+      <c r="C14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="J14" s="1" t="e">
+      <c r="D14" s="1">
+        <v>81.45</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="J14" s="1">
         <f>D14/E14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" t="e">
+        <v>10.860000000000001</v>
+      </c>
+      <c r="N14">
         <f>J14</f>
-        <v>#DIV/0!</v>
+        <v>10.860000000000001</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P14" t="e">
+      <c r="P14">
         <f>E28</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C15" s="11" t="s">
+        <v>0.27813333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22">
+      <c r="C15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
       <c r="C22" t="s">
         <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="e">
+      <c r="F22">
+        <f>D6/D7</f>
+        <v>5.3</v>
+      </c>
+      <c r="G22">
+        <f>D10/D11</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23">
         <f xml:space="preserve"> H6 * ((E7/E6)+(F7/F6)+(G7/G6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" t="e">
+        <v>5.1004999999999995E-2</v>
+      </c>
+      <c r="D23">
         <f xml:space="preserve"> G10 * ((2*(E11/E10))+(F11/F10))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+        <v>0.14314238715000002</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
       <c r="C27" t="s">
         <v>74</v>
       </c>
@@ -3282,22 +3348,37 @@
       <c r="E27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" t="e">
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28">
         <f xml:space="preserve"> J6 * ((D7/D6) + (H7/H6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" t="e">
+        <v>0.53522347143229521</v>
+      </c>
+      <c r="D28">
         <f xml:space="preserve"> J10 * ((D11/D10) + (G11/G10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" t="e">
+        <v>0.12197069630548889</v>
+      </c>
+      <c r="E28">
         <f xml:space="preserve"> J14 * ((D15/D14) + (E15/E14))</f>
-        <v>#DIV/0!</v>
+        <v>0.27813333333333334</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28">
+        <v>11.34</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{B06EE10C-4440-44D9-A301-8268578A2A9A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LabFizyka/cw3 cw0 cw 4, cw 5fizyka.xlsx
+++ b/LabFizyka/cw3 cw0 cw 4, cw 5fizyka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w71377\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E6D259-F4BD-4E7C-8A1F-D02D607FF159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE46D94-EC56-4129-AD66-E80224333B1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="3" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
   </bookViews>
@@ -246,12 +246,6 @@
     <t>https://artizono.com/pl/wykres-gestosci-metalu/</t>
   </si>
   <si>
-    <t>Niepewność Prost.</t>
-  </si>
-  <si>
-    <t>Niepewność Walca</t>
-  </si>
-  <si>
     <t>Niepewnośc gęstości Prost.</t>
   </si>
   <si>
@@ -268,6 +262,12 @@
   </si>
   <si>
     <t>ołów</t>
+  </si>
+  <si>
+    <t>Niepewność Prost. Obj</t>
+  </si>
+  <si>
+    <t>Niepewność Walca Obj</t>
   </si>
 </sst>
 </file>
@@ -3075,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9358F7-C4ED-4B6D-8B2F-DE67E7CDFF21}">
   <dimension ref="C2:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="P6">
         <f>C28</f>
-        <v>0.53522347143229521</v>
+        <v>0.11219445521836882</v>
       </c>
     </row>
     <row r="7" spans="3:22" ht="15">
@@ -3158,7 +3158,7 @@
         <v>65</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="1">
         <v>0.01</v>
@@ -3170,7 +3170,7 @@
         <v>0.01</v>
       </c>
       <c r="H7" s="1">
-        <v>0.04</v>
+        <v>5.1005000000000002E-2</v>
       </c>
       <c r="O7" s="7"/>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="P10">
         <f>D28</f>
-        <v>0.12197069630548889</v>
+        <v>0.20505301463624037</v>
       </c>
     </row>
     <row r="11" spans="3:22" ht="15">
@@ -3245,7 +3245,7 @@
         <v>0.01</v>
       </c>
       <c r="G11" s="1">
-        <v>0.04</v>
+        <v>0.14314238700000001</v>
       </c>
       <c r="O11" s="7"/>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="P14">
         <f>E28</f>
-        <v>0.27813333333333334</v>
+        <v>0.15146666666666669</v>
       </c>
     </row>
     <row r="15" spans="3:22">
@@ -3298,7 +3298,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="E15" s="1">
         <v>0.1</v>
@@ -3306,14 +3306,14 @@
     </row>
     <row r="22" spans="3:9">
       <c r="C22" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <f>D6/D7</f>
-        <v>5.3</v>
+        <v>52.999999999999993</v>
       </c>
       <c r="G22">
         <f>D10/D11</f>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="26" spans="3:9">
       <c r="H26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I26">
         <v>2.65</v>
@@ -3340,16 +3340,16 @@
     </row>
     <row r="27" spans="3:9">
       <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
         <v>74</v>
       </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>76</v>
-      </c>
-      <c r="H27" t="s">
-        <v>78</v>
       </c>
       <c r="I27">
         <v>8.9</v>
@@ -3358,18 +3358,18 @@
     <row r="28" spans="3:9">
       <c r="C28">
         <f xml:space="preserve"> J6 * ((D7/D6) + (H7/H6))</f>
-        <v>0.53522347143229521</v>
+        <v>0.11219445521836882</v>
       </c>
       <c r="D28">
         <f xml:space="preserve"> J10 * ((D11/D10) + (G11/G10))</f>
-        <v>0.12197069630548889</v>
+        <v>0.20505301463624037</v>
       </c>
       <c r="E28">
         <f xml:space="preserve"> J14 * ((D15/D14) + (E15/E14))</f>
-        <v>0.27813333333333334</v>
+        <v>0.15146666666666669</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I28">
         <v>11.34</v>
